--- a/Database excel/WTDB.xlsx
+++ b/Database excel/WTDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Comilla_central_medical\Database excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA4C0F-01BD-40CA-BF96-193F1AD13542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FE67D-E204-4EAE-B902-DAB12E8CC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{248AAC26-A8D7-4A6F-AABF-56A954FEE1E6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{248AAC26-A8D7-4A6F-AABF-56A954FEE1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>1. Users Table</t>
   </si>
@@ -267,13 +267,118 @@
   </si>
   <si>
     <t>1/2/3/4/5</t>
+  </si>
+  <si>
+    <t>admission</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>patient ID</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>DoctorEmail</t>
+  </si>
+  <si>
+    <t>DoctorPassword</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>RoomType</t>
+  </si>
+  <si>
+    <t>RoomPrice</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestPrice</t>
+  </si>
+  <si>
+    <t>RecID</t>
+  </si>
+  <si>
+    <t>RecName</t>
+  </si>
+  <si>
+    <t>RecAdress</t>
+  </si>
+  <si>
+    <t>RecNumber</t>
+  </si>
+  <si>
+    <t>RecPassword</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>BloodGroup</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>AdmissionID</t>
+  </si>
+  <si>
+    <t>AdmissionStatus</t>
+  </si>
+  <si>
+    <t>DischargeDate</t>
+  </si>
+  <si>
+    <t>PatitentBill</t>
+  </si>
+  <si>
+    <t>Appoinment</t>
+  </si>
+  <si>
+    <t>AppoinmentID</t>
+  </si>
+  <si>
+    <t>AppoinmentDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +402,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +489,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAE3948-8814-446C-B49D-7AE068DD6AAC}">
-  <dimension ref="B8:I65"/>
+  <dimension ref="A8:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K42" sqref="K36:U42"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +921,7 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -810,8 +940,8 @@
       <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3">
-        <v>1122334455</v>
+      <c r="H13" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.3">
@@ -1225,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>2</v>
       </c>
@@ -1242,7 +1372,351 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="10">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="10">
+        <v>1122334455</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" s="11">
+        <v>36893</v>
+      </c>
+      <c r="H104" s="10">
+        <v>2</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="10">
+        <v>2</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="10">
+        <v>2233445566</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="11">
+        <v>36893</v>
+      </c>
+      <c r="H105" s="10">
+        <v>3</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database excel/WTDB.xlsx
+++ b/Database excel/WTDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Comilla_central_medical\Database excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FE67D-E204-4EAE-B902-DAB12E8CC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E511F0B-4AE0-457F-9766-7580B019BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{248AAC26-A8D7-4A6F-AABF-56A954FEE1E6}"/>
   </bookViews>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAE3948-8814-446C-B49D-7AE068DD6AAC}">
   <dimension ref="A8:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,34 +1639,34 @@
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="6" t="s">
@@ -1677,22 +1677,22 @@
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
